--- a/va_facility_data_2025-02-20/Decatur VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Decatur%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Decatur VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Decatur%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R105257b81bf8414d975ecf4cba44192e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R350b1e1104004ebcbedd132214b1ecc4"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbf7b1c6455bf4318bc1d336e9b084145"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re90773ca19cc4dada96c133dd7f20761"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc6b74048ef4c4d9d886b5cc2388a7c15"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R56ba8018da9b4ac7907cd11fce07f873"/>
   </x:sheets>
 </x:workbook>
 </file>
